--- a/Example_ModelEval.xlsx
+++ b/Example_ModelEval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishaalabdullatif/Documents/dev/bootcamps/TuwaiqBootcamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghadah/Downloads/Twaiqe_DS_ML/GhadahLab/Day22_Lab_Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91315822-40A6-FF4A-9257-3EEF8A70684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CF7A65-FC49-9F4E-9B86-962AD21D00FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>Hours Studied</t>
   </si>
@@ -45,9 +44,6 @@
   </si>
   <si>
     <t>Predicted Score</t>
-  </si>
-  <si>
-    <t>Squared Difference</t>
   </si>
   <si>
     <t>Actual Pass?</t>
@@ -61,24 +57,11 @@
   <si>
     <t>Predicted Pass?</t>
   </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>RMSE -step 2</t>
-  </si>
-  <si>
-    <t>RMSE - step3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -110,18 +93,12 @@
       <name val="DIN Next LT Arabic Regular"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,18 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,47 +433,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6125A-C6FE-4244-8815-D8075F6417F0}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="10.83203125" style="9"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="27">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="27">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -513,25 +477,13 @@
         <v>79.03</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <f>(C2-B2)^2</f>
-        <v>121.66090000000003</v>
-      </c>
-      <c r="G2" s="2">
-        <f>ABS(C2-B2)</f>
-        <v>11.030000000000001</v>
-      </c>
-      <c r="H2" s="9">
-        <f>(C2-B2)^2</f>
-        <v>121.66090000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -542,25 +494,13 @@
         <v>79.03</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F16" si="0">(C3-B3)^2</f>
-        <v>1.0609000000000024</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G16" si="1">ABS(C3-B3)</f>
-        <v>1.0300000000000011</v>
-      </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H18" si="2">(C3-B3)^2</f>
-        <v>1.0609000000000024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -571,25 +511,13 @@
         <v>79.03</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>16.240900000000011</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0300000000000011</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="2"/>
-        <v>16.240900000000011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -600,25 +528,13 @@
         <v>82.11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.79210000000000103</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89000000000000057</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="2"/>
-        <v>0.79210000000000103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -629,25 +545,13 @@
         <v>82.11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4520999999999979</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1099999999999994</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="2"/>
-        <v>4.4520999999999979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -658,25 +562,13 @@
         <v>82.11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>16.892099999999996</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1099999999999994</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="2"/>
-        <v>16.892099999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -687,25 +579,13 @@
         <v>82.11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>47.472100000000005</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000006</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="2"/>
-        <v>47.472100000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -716,25 +596,13 @@
         <v>82.11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>118.59210000000002</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>10.89</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="2"/>
-        <v>118.59210000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -745,25 +613,13 @@
         <v>85.19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>23.13610000000002</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>4.8100000000000023</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="2"/>
-        <v>23.13610000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -774,25 +630,13 @@
         <v>85.19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>33.756100000000025</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>5.8100000000000023</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="2"/>
-        <v>33.756100000000025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -803,25 +647,13 @@
         <v>88.27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>32.832900000000045</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>5.730000000000004</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="2"/>
-        <v>32.832900000000045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -832,25 +664,13 @@
         <v>91.35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>11.222499999999961</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>3.3499999999999943</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="2"/>
-        <v>11.222499999999961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -861,25 +681,13 @@
         <v>91.35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>54.022499999999916</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3499999999999943</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="shared" si="2"/>
-        <v>54.022499999999916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -890,25 +698,13 @@
         <v>91.35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8224999999999847</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3499999999999943</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="2"/>
-        <v>1.8224999999999847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -919,57 +715,10 @@
         <v>94.43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.18490000000000587</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.43000000000000682</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="2"/>
-        <v>0.18490000000000587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="27">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3">
-        <f>SQRT(AVERAGE(F2:F16))</f>
-        <v>5.6812011640731983</v>
-      </c>
-      <c r="G17" s="10">
-        <f>AVERAGE(G2:G16)</f>
-        <v>4.6539999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9">
-        <f>AVERAGE(H2:H16)</f>
-        <v>32.276046666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="10">
-        <f>SQRT(G18)</f>
-        <v>5.6812011640731983</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Example_ModelEval.xlsx
+++ b/Example_ModelEval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishaalabdullatif/Documents/dev/bootcamps/TuwaiqBootcamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rawan\data_bootcamp\Day22_Lab_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91315822-40A6-FF4A-9257-3EEF8A70684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6AFA82-70CD-4F83-B692-466C4EDE630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
+    <workbookView xWindow="9890" yWindow="70" windowWidth="12580" windowHeight="6800" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>Hours Studied</t>
   </si>
@@ -69,6 +69,39 @@
   </si>
   <si>
     <t>RMSE - step3</t>
+  </si>
+  <si>
+    <t>Predicted Pass? M3</t>
+  </si>
+  <si>
+    <t>Predicted Pass? M4</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC </t>
   </si>
 </sst>
 </file>
@@ -79,7 +112,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +142,14 @@
       <color theme="1"/>
       <name val="DIN Next LT Arabic Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -136,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,6 +189,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,13 +504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6125A-C6FE-4244-8815-D8075F6417F0}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="79" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -478,10 +520,13 @@
     <col min="6" max="6" width="24.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="8" max="8" width="10.83203125" style="9"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="15.08203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.9140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="27">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -501,8 +546,17 @@
         <v>3</v>
       </c>
       <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="27">
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -510,7 +564,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="1">
-        <v>79.03</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -520,18 +574,27 @@
       </c>
       <c r="F2" s="3">
         <f>(C2-B2)^2</f>
-        <v>121.66090000000003</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <f>ABS(C2-B2)</f>
-        <v>11.030000000000001</v>
+        <v>8</v>
       </c>
       <c r="H2" s="9">
         <f>(C2-B2)^2</f>
-        <v>121.66090000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -539,7 +602,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="1">
-        <v>79.03</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -549,18 +612,27 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F16" si="0">(C3-B3)^2</f>
-        <v>1.0609000000000024</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G16" si="1">ABS(C3-B3)</f>
-        <v>1.0300000000000011</v>
+        <v>1</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H18" si="2">(C3-B3)^2</f>
-        <v>1.0609000000000024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
+        <f t="shared" ref="H3:H16" si="2">(C3-B3)^2</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -568,7 +640,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1">
-        <v>79.03</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -578,18 +650,27 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>16.240900000000011</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>4.0300000000000011</v>
+        <v>5</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="2"/>
-        <v>16.240900000000011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -597,7 +678,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="1">
-        <v>82.11</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -607,18 +688,27 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0.79210000000000103</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>0.89000000000000057</v>
+        <v>3</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="2"/>
-        <v>0.79210000000000103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -626,7 +716,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1">
-        <v>82.11</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -636,18 +726,27 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>4.4520999999999979</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>2.1099999999999994</v>
+        <v>10</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="2"/>
-        <v>4.4520999999999979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -655,7 +754,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="1">
-        <v>82.11</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -665,18 +764,27 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>16.892099999999996</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>4.1099999999999994</v>
+        <v>1</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>16.892099999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -684,7 +792,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="1">
-        <v>82.11</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -694,18 +802,27 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>47.472100000000005</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>6.8900000000000006</v>
+        <v>9</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>47.472100000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
+        <v>81</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -713,7 +830,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="1">
-        <v>82.11</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -723,18 +840,27 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>118.59210000000002</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>10.89</v>
+        <v>3</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="2"/>
-        <v>118.59210000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -742,7 +868,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="1">
-        <v>85.19</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -752,18 +878,27 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>23.13610000000002</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>4.8100000000000023</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>23.13610000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -771,7 +906,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="1">
-        <v>85.19</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -781,18 +916,27 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>33.756100000000025</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>5.8100000000000023</v>
+        <v>1</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="2"/>
-        <v>33.756100000000025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -800,7 +944,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="1">
-        <v>88.27</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -810,18 +954,27 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>32.832900000000045</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>5.730000000000004</v>
+        <v>5</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="2"/>
-        <v>32.832900000000045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -829,7 +982,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1">
-        <v>91.35</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -839,18 +992,27 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>11.222499999999961</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>3.3499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="2"/>
-        <v>11.222499999999961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -858,7 +1020,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="1">
-        <v>91.35</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -868,18 +1030,27 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>54.022499999999916</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>7.3499999999999943</v>
+        <v>4</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="2"/>
-        <v>54.022499999999916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="27">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -908,7 +1079,7 @@
         <v>1.8224999999999847</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27">
+    <row r="16" spans="1:12" ht="20">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -937,7 +1108,7 @@
         <v>0.18490000000000587</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27">
+    <row r="17" spans="1:12" ht="20">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -947,33 +1118,142 @@
       <c r="E17" s="1"/>
       <c r="F17" s="3">
         <f>SQRT(AVERAGE(F2:F16))</f>
-        <v>5.6812011640731983</v>
+        <v>5.1510995589938533</v>
       </c>
       <c r="G17" s="10">
         <f>AVERAGE(G2:G16)</f>
-        <v>4.6539999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>3.9853333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="9">
         <f>AVERAGE(H2:H16)</f>
-        <v>32.276046666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>26.533826666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="10">
         <f>SQRT(G18)</f>
-        <v>5.6812011640731983</v>
+        <v>5.1510995589938533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="J22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2">
+        <v>4</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="23.5">
+      <c r="J26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="2">
+        <f xml:space="preserve"> K21/(K21+K23)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <f xml:space="preserve"> L21/(L21+L23)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="23.5">
+      <c r="J27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2">
+        <f>K21/(K21+K24)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L27" s="2">
+        <f>L21/(L21+L24)</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="23.5">
+      <c r="J28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="2">
+        <f>(K21+K22)/(K21+K22+K23+K24)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L28" s="2">
+        <f>(L21+L22)/(L21+L22+L23+L24)</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="23.5">
+      <c r="J29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2">
+        <f xml:space="preserve"> 2 * ((K26*K27)/(K26+K27))</f>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="L29" s="2">
+        <f xml:space="preserve"> 2 * ((L26*L27)/(L26+L27))</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="23.5">
+      <c r="J30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="2">
+        <f xml:space="preserve"> K21/(K21+K24)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L30" s="2">
+        <f xml:space="preserve"> L21/(L21+L24)</f>
+        <v>0.44444444444444442</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Example_ModelEval.xlsx
+++ b/Example_ModelEval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishaalabdullatif/Documents/dev/bootcamps/TuwaiqBootcamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arwa\Desktop\labs\Day22_Lab_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91315822-40A6-FF4A-9257-3EEF8A70684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A96303-6643-46E9-AD8C-6ABB84F1416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
   <si>
     <t>Hours Studied</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Exam Score</t>
   </si>
   <si>
-    <t>Predicted Score</t>
-  </si>
-  <si>
     <t>Squared Difference</t>
   </si>
   <si>
@@ -65,10 +62,64 @@
     <t>MAE</t>
   </si>
   <si>
-    <t>RMSE -step 2</t>
-  </si>
-  <si>
-    <t>RMSE - step3</t>
+    <t>Predicted Score-m1</t>
+  </si>
+  <si>
+    <t>Predicted Score -M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted Pass? -M3 </t>
+  </si>
+  <si>
+    <t>Predicted Pass -M4</t>
+  </si>
+  <si>
+    <t>Absolute Error</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 Score </t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUAL CLASS </t>
+  </si>
+  <si>
+    <t>PRED</t>
+  </si>
+  <si>
+    <t>ACTUAL CLASS</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>RSME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE </t>
   </si>
 </sst>
 </file>
@@ -79,11 +130,18 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,18 +157,75 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FF212529"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DIN Next LT Arabic Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DIN Next LT Arabic Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DIN Next LT Arabic Regular"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
       <name val="DIN Next LT Arabic Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,12 +234,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -132,25 +271,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي 2" xfId="1" xr:uid="{536C2BBF-275A-4E08-97C1-48B35CEA88ED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,518 +893,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6125A-C6FE-4244-8815-D8075F6417F0}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="10.83203125" style="9"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1"/>
+    <col min="8" max="8" width="10.77734375" style="4"/>
+    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1"/>
+    <col min="11" max="11" width="7" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="27">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="18.75">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="1">
+      <c r="N1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="34"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="17">
         <v>68</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="31">
         <v>79.03</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18">
         <f>(C2-B2)^2</f>
         <v>121.66090000000003</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="19">
         <f>ABS(C2-B2)</f>
         <v>11.030000000000001</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="20">
         <f>(C2-B2)^2</f>
         <v>121.66090000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="1">
+      <c r="I2" s="32">
+        <v>70.5</v>
+      </c>
+      <c r="J2" s="19">
+        <f>ABS(I2-B2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K2" s="19">
+        <f>(I2-B2)^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="17">
         <v>78</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="16">
         <v>79.03</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="18">
         <f t="shared" ref="F3:F16" si="0">(C3-B3)^2</f>
         <v>1.0609000000000024</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="19">
         <f t="shared" ref="G3:G16" si="1">ABS(C3-B3)</f>
         <v>1.0300000000000011</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H18" si="2">(C3-B3)^2</f>
+      <c r="H3" s="20">
+        <f t="shared" ref="H3:H16" si="2">(C3-B3)^2</f>
         <v>1.0609000000000024</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
-      <c r="A4" s="1">
+      <c r="I3" s="21">
+        <v>79</v>
+      </c>
+      <c r="J3" s="19">
+        <f t="shared" ref="J3:J16" si="3">ABS(I3-B3)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="K3" s="19">
+        <f t="shared" ref="K3:K16" si="4">(I3-B3)^2</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.75">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
         <v>75</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="16">
         <v>79.03</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>16.240900000000011</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="19">
         <f t="shared" si="1"/>
         <v>4.0300000000000011</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="20">
         <f t="shared" si="2"/>
         <v>16.240900000000011</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
-      <c r="A5" s="1">
+      <c r="I4" s="21">
+        <v>77.2</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="K4" s="19">
+        <f t="shared" si="4"/>
+        <v>4.8400000000000123</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>83</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="16">
         <v>82.11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>0.79210000000000103</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="19">
         <f t="shared" si="1"/>
         <v>0.89000000000000057</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="20">
         <f t="shared" si="2"/>
         <v>0.79210000000000103</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="27">
-      <c r="A6" s="1">
+      <c r="I5" s="21">
+        <v>84</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>80</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="16">
         <v>82.11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>4.4520999999999979</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="19">
         <f t="shared" si="1"/>
         <v>2.1099999999999994</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="20">
         <f t="shared" si="2"/>
         <v>4.4520999999999979</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
-      <c r="A7" s="1">
+      <c r="I6" s="21">
+        <v>80</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>78</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="16">
         <v>82.11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>16.892099999999996</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="19">
         <f t="shared" si="1"/>
         <v>4.1099999999999994</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="20">
         <f t="shared" si="2"/>
         <v>16.892099999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="1">
+      <c r="I7" s="21">
+        <v>75.3</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="4"/>
+        <v>7.2900000000000151</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" ht="18.75">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>89</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="16">
         <v>82.11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>47.472100000000005</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>6.8900000000000006</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>47.472100000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="1">
+      <c r="I8" s="21">
+        <v>92.2</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="4"/>
+        <v>10.240000000000018</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="17">
         <v>93</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="16">
         <v>82.11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>118.59210000000002</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="19">
         <f t="shared" si="1"/>
         <v>10.89</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="20">
         <f t="shared" si="2"/>
         <v>118.59210000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="1">
+      <c r="I9" s="21">
+        <v>94.5</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" ht="18.75">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="17">
         <v>90</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="16">
         <v>85.19</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>23.13610000000002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>4.8100000000000023</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
         <v>23.13610000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="27">
-      <c r="A11" s="1">
+      <c r="I10" s="21">
+        <v>88</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" ht="18.75">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="17">
         <v>91</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="16">
         <v>85.19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>33.756100000000025</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>5.8100000000000023</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="20">
         <f t="shared" si="2"/>
         <v>33.756100000000025</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="I11" s="21">
+        <v>88.9</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="4"/>
+        <v>4.4099999999999762</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" ht="18.75">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17">
         <v>94</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="16">
         <v>88.27</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>32.832900000000045</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>5.730000000000004</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="20">
         <f t="shared" si="2"/>
         <v>32.832900000000045</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27">
-      <c r="A13" s="1">
+      <c r="I12" s="21">
+        <v>92</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="18.75">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="17">
         <v>88</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="16">
         <v>91.35</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>11.222499999999961</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
         <v>3.3499999999999943</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="20">
         <f t="shared" si="2"/>
         <v>11.222499999999961</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="27">
-      <c r="A14" s="1">
+      <c r="I13" s="21">
+        <v>90.5</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.75">
+      <c r="A14" s="17">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="17">
         <v>84</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="16">
         <v>91.35</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>54.022499999999916</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>7.3499999999999943</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="20">
         <f t="shared" si="2"/>
         <v>54.022499999999916</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="27">
-      <c r="A15" s="1">
+      <c r="I14" s="21">
+        <v>82.04</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="3"/>
+        <v>1.9599999999999937</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="4"/>
+        <v>3.8415999999999757</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" ht="18.75">
+      <c r="A15" s="17">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="17">
         <v>90</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="16">
         <v>91.35</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>1.8224999999999847</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="19">
         <f t="shared" si="1"/>
         <v>1.3499999999999943</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="20">
         <f t="shared" si="2"/>
         <v>1.8224999999999847</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="27">
-      <c r="A16" s="1">
+      <c r="I15" s="21">
+        <v>92.7</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="4"/>
+        <v>7.2900000000000151</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" ht="18.75">
+      <c r="A16" s="17">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="17">
         <v>94</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="16">
         <v>94.43</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="D16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>0.18490000000000587</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="43">
         <f t="shared" si="1"/>
         <v>0.43000000000000682</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="20">
         <f t="shared" si="2"/>
         <v>0.18490000000000587</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3">
+      <c r="I16" s="21">
+        <v>95.5</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="20.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26">
         <f>SQRT(AVERAGE(F2:F16))</f>
         <v>5.6812011640731983</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="48">
         <f>AVERAGE(G2:G16)</f>
         <v>4.6539999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="H17" s="27"/>
+      <c r="I17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="12">
+        <f>AVERAGE(J2:J16)</f>
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="20.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="47">
         <f>AVERAGE(H2:H16)</f>
         <v>32.276046666666666</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="H18" s="27"/>
+      <c r="I18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="12">
+        <f>AVERAGE(K2:K16)</f>
+        <v>4.3274400000000011</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="50">
         <f>SQRT(G18)</f>
         <v>5.6812011640731983</v>
       </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="12">
+        <f>SQRT(J18)</f>
+        <v>2.0802499849777671</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="9">
+        <f>COUNTIF(O2:O16,"TP")</f>
+        <v>11</v>
+      </c>
+      <c r="O19" s="9">
+        <f>COUNTIF(O2:O16,"FP")</f>
+        <v>4</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="9">
+        <f>COUNTIF(R2:R16,"TP")</f>
+        <v>9</v>
+      </c>
+      <c r="S19" s="9">
+        <f>COUNTIF(R2:R16,"FP")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="9">
+        <f>COUNTIF(O2:O16,"TN")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <f>COUNTIF(O2:O16,"FN")</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="9">
+        <f>COUNTIF(R2:R16,"TN")</f>
+        <v>3</v>
+      </c>
+      <c r="S20" s="9">
+        <f>COUNTIF(R2:R16,"FN")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18">
+      <c r="M22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="7">
+        <f>COUNTIF(O2:O16, "TP")/ COUNTIF(O2:O16,"??")</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="7">
+        <f>COUNTIF(R2:R16, "TP")/ COUNTIF(R2:R16,"??")</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18">
+      <c r="M23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="7">
+        <f>(N19/(N19+O20))</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="7">
+        <f>(R19/(R19+S20))</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18">
+      <c r="M24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="7">
+        <f>(N19+N20)/(N19+O19+N20+O20)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="7">
+        <f>(R19+R20)/(R19+S19+R20+S20)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18">
+      <c r="M25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="7">
+        <f>2*N19/((2*N19)+N20+O19)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="7">
+        <f>2*R19/((2*R19)+R20+S19)</f>
+        <v>0.81818181818181823</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="I18:I19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Example_ModelEval.xlsx
+++ b/Example_ModelEval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishaalabdullatif/Documents/dev/bootcamps/TuwaiqBootcamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96656\Desktop\Day22_Lab_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91315822-40A6-FF4A-9257-3EEF8A70684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A3EE1-DA1F-415B-BFA1-6EC955B57E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{3E2D19EB-1BA1-3749-8827-A03055A9E679}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Hours Studied</t>
   </si>
@@ -62,13 +62,76 @@
     <t>Predicted Pass?</t>
   </si>
   <si>
-    <t>MAE</t>
-  </si>
-  <si>
     <t>RMSE -step 2</t>
   </si>
   <si>
     <t>RMSE - step3</t>
+  </si>
+  <si>
+    <t>Absolute error 1</t>
+  </si>
+  <si>
+    <t>Predicted Score 2</t>
+  </si>
+  <si>
+    <t>Absolute error 2</t>
+  </si>
+  <si>
+    <t>MAE2</t>
+  </si>
+  <si>
+    <t>MAE1</t>
+  </si>
+  <si>
+    <t>RSME step 1</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>TN1</t>
+  </si>
+  <si>
+    <t>FP1</t>
+  </si>
+  <si>
+    <t>FN1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>TN2</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>FP2</t>
+  </si>
+  <si>
+    <t>FN2</t>
+  </si>
+  <si>
+    <t>Precision2</t>
+  </si>
+  <si>
+    <t>Recall2</t>
+  </si>
+  <si>
+    <t>Accuracy2</t>
+  </si>
+  <si>
+    <t>f1-2</t>
   </si>
 </sst>
 </file>
@@ -110,7 +173,7 @@
       <name val="DIN Next LT Arabic Regular"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,6 +217,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6125A-C6FE-4244-8815-D8075F6417F0}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -476,12 +546,13 @@
     <col min="4" max="4" width="16.1640625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="10.83203125" style="9"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="24.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="9"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="27">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="20">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -500,9 +571,71 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:27" ht="20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -522,16 +655,85 @@
         <f>(C2-B2)^2</f>
         <v>121.66090000000003</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2">
         <f>ABS(C2-B2)</f>
         <v>11.030000000000001</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <f>(C2-B2)^2</f>
         <v>121.66090000000003</v>
       </c>
+      <c r="J2" s="2">
+        <f>ABS(G2-B2)</f>
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <f>(G2-B2)^2</f>
+        <v>49</v>
+      </c>
+      <c r="L2" s="2">
+        <v>68</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <f>C2-B2</f>
+        <v>11.030000000000001</v>
+      </c>
+      <c r="P2" s="2">
+        <f>L2/L2+N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>L2/L2+O2</f>
+        <v>12.030000000000001</v>
+      </c>
+      <c r="R2" s="2">
+        <f>L2+M3/L2+M2+N2+O2</f>
+        <v>79.03</v>
+      </c>
+      <c r="S2" s="2">
+        <f>2*(P2*Q2/P2+Q2)</f>
+        <v>48.120000000000005</v>
+      </c>
+      <c r="T2" s="2">
+        <v>68</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <f>G2-B2</f>
+        <v>7</v>
+      </c>
+      <c r="X2" s="2">
+        <f>T2/T2+V2</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>T2/T2+W2</f>
+        <v>8</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>T2+U2/T2+U2+V2+W2</f>
+        <v>75</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>2*(X2*Y2/X2+Y2)</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="27">
+    <row r="3" spans="1:27" ht="20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -548,19 +750,88 @@
         <v>5</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F16" si="0">(C3-B3)^2</f>
+        <f>(C3-B3)^2</f>
         <v>1.0609000000000024</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G16" si="1">ABS(C3-B3)</f>
+      <c r="G3" s="3">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2">
+        <f>ABS(C3-B3)</f>
         <v>1.0300000000000011</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H18" si="2">(C3-B3)^2</f>
+      <c r="I3" s="9">
+        <f>(C3-B3)^2</f>
         <v>1.0609000000000024</v>
       </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J16" si="0">ABS(G3-B3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K16" si="1">(G3-B3)^2</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>78</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f>C3-B3</f>
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P16" si="2">L3/L3+N3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q16" si="3">L3/L3+O3</f>
+        <v>2.0300000000000011</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R16" si="4">L3+M4/L3+M3+N3+O3</f>
+        <v>79.03</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S16" si="5">2*(P3*Q3/P3+Q3)</f>
+        <v>8.1200000000000045</v>
+      </c>
+      <c r="T3" s="2">
+        <v>78</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" ref="W3:W16" si="6">G3-B3</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" ref="X3:X16" si="7">T3/T3+V3</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y16" si="8">T3/T3+W3</f>
+        <v>2</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z16" si="9">T3+U3/T3+U3+V3+W3</f>
+        <v>79</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" ref="AA3:AA16" si="10">2*(X3*Y3/X3+Y3)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="27">
+    <row r="4" spans="1:27" ht="20">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -577,19 +848,88 @@
         <v>5</v>
       </c>
       <c r="F4" s="3">
+        <f>(C4-B4)^2</f>
+        <v>16.240900000000011</v>
+      </c>
+      <c r="G4" s="3">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2">
+        <f>ABS(C4-B4)</f>
+        <v>4.0300000000000011</v>
+      </c>
+      <c r="I4" s="9">
+        <f>(C4-B4)^2</f>
+        <v>16.240900000000011</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>16.240900000000011</v>
-      </c>
-      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>75</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O3:O16" si="11">C4-B4</f>
         <v>4.0300000000000011</v>
       </c>
-      <c r="H4" s="9">
+      <c r="P4" s="2">
         <f t="shared" si="2"/>
-        <v>16.240900000000011</v>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0300000000000011</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="4"/>
+        <v>79.03</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="5"/>
+        <v>20.120000000000005</v>
+      </c>
+      <c r="T4" s="2">
+        <v>75</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27">
+    <row r="5" spans="1:27" ht="20">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -606,19 +946,88 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
+        <f>(C5-B5)^2</f>
+        <v>0.79210000000000103</v>
+      </c>
+      <c r="G5" s="3">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2">
+        <f>ABS(C5-B5)</f>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="I5" s="9">
+        <f>(C5-B5)^2</f>
+        <v>0.79210000000000103</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>0.79210000000000103</v>
-      </c>
-      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>82.11</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N3:N16" si="12">B5-C5</f>
         <v>0.89000000000000057</v>
       </c>
-      <c r="H5" s="9">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
         <f t="shared" si="2"/>
-        <v>0.79210000000000103</v>
+        <v>1.8900000000000006</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>82</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ref="V3:V16" si="13">B5-G5</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27">
+    <row r="6" spans="1:27" ht="20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -635,19 +1044,88 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
+        <f>(C6-B6)^2</f>
+        <v>4.4520999999999979</v>
+      </c>
+      <c r="G6" s="3">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2">
+        <f>ABS(C6-B6)</f>
+        <v>2.1099999999999994</v>
+      </c>
+      <c r="I6" s="9">
+        <f>(C6-B6)^2</f>
+        <v>4.4520999999999979</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>4.4520999999999979</v>
-      </c>
-      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>80</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="11"/>
         <v>2.1099999999999994</v>
       </c>
-      <c r="H6" s="9">
+      <c r="P6" s="2">
         <f t="shared" si="2"/>
-        <v>4.4520999999999979</v>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1099999999999994</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="4"/>
+        <v>82.11</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="5"/>
+        <v>12.439999999999998</v>
+      </c>
+      <c r="T6" s="2">
+        <v>80</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27">
+    <row r="7" spans="1:27" ht="20">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -664,19 +1142,88 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
+        <f>(C7-B7)^2</f>
+        <v>16.892099999999996</v>
+      </c>
+      <c r="G7" s="3">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <f>ABS(C7-B7)</f>
+        <v>4.1099999999999994</v>
+      </c>
+      <c r="I7" s="9">
+        <f>(C7-B7)^2</f>
+        <v>16.892099999999996</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>16.892099999999996</v>
-      </c>
-      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>78</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="11"/>
         <v>4.1099999999999994</v>
       </c>
-      <c r="H7" s="9">
+      <c r="P7" s="2">
         <f t="shared" si="2"/>
-        <v>16.892099999999996</v>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1099999999999994</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="4"/>
+        <v>82.11</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="5"/>
+        <v>20.439999999999998</v>
+      </c>
+      <c r="T7" s="2">
+        <v>78</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27">
+    <row r="8" spans="1:27" ht="20">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -693,19 +1240,88 @@
         <v>5</v>
       </c>
       <c r="F8" s="3">
+        <f>(C8-B8)^2</f>
+        <v>47.472100000000005</v>
+      </c>
+      <c r="G8" s="3">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2">
+        <f>ABS(C8-B8)</f>
+        <v>6.8900000000000006</v>
+      </c>
+      <c r="I8" s="9">
+        <f>(C8-B8)^2</f>
+        <v>47.472100000000005</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>47.472100000000005</v>
-      </c>
-      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L8" s="2">
+        <v>82.11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="12"/>
         <v>6.8900000000000006</v>
       </c>
-      <c r="H8" s="9">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>47.472100000000005</v>
+        <v>7.8900000000000006</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>85</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27">
+    <row r="9" spans="1:27" ht="20">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -722,19 +1338,88 @@
         <v>5</v>
       </c>
       <c r="F9" s="3">
+        <f>(C9-B9)^2</f>
+        <v>118.59210000000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2">
+        <f>ABS(C9-B9)</f>
+        <v>10.89</v>
+      </c>
+      <c r="I9" s="9">
+        <f>(C9-B9)^2</f>
+        <v>118.59210000000002</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>118.59210000000002</v>
-      </c>
-      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>82.11</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="12"/>
         <v>10.89</v>
       </c>
-      <c r="H9" s="9">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <f t="shared" si="2"/>
-        <v>118.59210000000002</v>
+        <v>11.89</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T9" s="2">
+        <v>90</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27">
+    <row r="10" spans="1:27" ht="20">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -751,19 +1436,88 @@
         <v>5</v>
       </c>
       <c r="F10" s="3">
+        <f>(C10-B10)^2</f>
+        <v>23.13610000000002</v>
+      </c>
+      <c r="G10" s="3">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2">
+        <f>ABS(C10-B10)</f>
+        <v>4.8100000000000023</v>
+      </c>
+      <c r="I10" s="9">
+        <f>(C10-B10)^2</f>
+        <v>23.13610000000002</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>23.13610000000002</v>
-      </c>
-      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>85.19</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="12"/>
         <v>4.8100000000000023</v>
       </c>
-      <c r="H10" s="9">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <f t="shared" si="2"/>
-        <v>23.13610000000002</v>
+        <v>5.8100000000000023</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T10" s="2">
+        <v>88</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27">
+    <row r="11" spans="1:27" ht="20">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -780,19 +1534,88 @@
         <v>5</v>
       </c>
       <c r="F11" s="3">
+        <f>(C11-B11)^2</f>
+        <v>33.756100000000025</v>
+      </c>
+      <c r="G11" s="3">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2">
+        <f>ABS(C11-B11)</f>
+        <v>5.8100000000000023</v>
+      </c>
+      <c r="I11" s="9">
+        <f>(C11-B11)^2</f>
+        <v>33.756100000000025</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>33.756100000000025</v>
-      </c>
-      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>85.19</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="12"/>
         <v>5.8100000000000023</v>
       </c>
-      <c r="H11" s="9">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <f t="shared" si="2"/>
-        <v>33.756100000000025</v>
+        <v>6.8100000000000023</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T11" s="2">
+        <v>88</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27">
+    <row r="12" spans="1:27" ht="20">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -809,19 +1632,88 @@
         <v>5</v>
       </c>
       <c r="F12" s="3">
+        <f>(C12-B12)^2</f>
+        <v>32.832900000000045</v>
+      </c>
+      <c r="G12" s="3">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2">
+        <f>ABS(C12-B12)</f>
+        <v>5.730000000000004</v>
+      </c>
+      <c r="I12" s="9">
+        <f>(C12-B12)^2</f>
+        <v>32.832900000000045</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>32.832900000000045</v>
-      </c>
-      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L12" s="2">
+        <v>88.27</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="12"/>
         <v>5.730000000000004</v>
       </c>
-      <c r="H12" s="9">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
         <f t="shared" si="2"/>
-        <v>32.832900000000045</v>
+        <v>6.730000000000004</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T12" s="2">
+        <v>90</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27">
+    <row r="13" spans="1:27" ht="20">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -838,19 +1730,88 @@
         <v>5</v>
       </c>
       <c r="F13" s="3">
+        <f>(C13-B13)^2</f>
+        <v>11.222499999999961</v>
+      </c>
+      <c r="G13" s="3">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2">
+        <f>ABS(C13-B13)</f>
+        <v>3.3499999999999943</v>
+      </c>
+      <c r="I13" s="9">
+        <f>(C13-B13)^2</f>
+        <v>11.222499999999961</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>11.222499999999961</v>
-      </c>
-      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>88</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="11"/>
         <v>3.3499999999999943</v>
       </c>
-      <c r="H13" s="9">
+      <c r="P13" s="2">
         <f t="shared" si="2"/>
-        <v>11.222499999999961</v>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="4"/>
+        <v>91.35</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="5"/>
+        <v>17.399999999999977</v>
+      </c>
+      <c r="T13" s="2">
+        <v>88</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27">
+    <row r="14" spans="1:27" ht="20">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -867,19 +1828,88 @@
         <v>5</v>
       </c>
       <c r="F14" s="3">
+        <f>(C14-B14)^2</f>
+        <v>54.022499999999916</v>
+      </c>
+      <c r="G14" s="3">
+        <v>86</v>
+      </c>
+      <c r="H14" s="2">
+        <f>ABS(C14-B14)</f>
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="I14" s="9">
+        <f>(C14-B14)^2</f>
+        <v>54.022499999999916</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>54.022499999999916</v>
-      </c>
-      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="2">
+        <v>84</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="11"/>
         <v>7.3499999999999943</v>
       </c>
-      <c r="H14" s="9">
+      <c r="P14" s="2">
         <f t="shared" si="2"/>
-        <v>54.022499999999916</v>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="3"/>
+        <v>8.3499999999999943</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="4"/>
+        <v>91.35</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="5"/>
+        <v>33.399999999999977</v>
+      </c>
+      <c r="T14" s="2">
+        <v>84</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27">
+    <row r="15" spans="1:27" ht="20">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -896,19 +1926,88 @@
         <v>5</v>
       </c>
       <c r="F15" s="3">
+        <f>(C15-B15)^2</f>
+        <v>1.8224999999999847</v>
+      </c>
+      <c r="G15" s="3">
+        <v>91</v>
+      </c>
+      <c r="H15" s="2">
+        <f>ABS(C15-B15)</f>
+        <v>1.3499999999999943</v>
+      </c>
+      <c r="I15" s="9">
+        <f>(C15-B15)^2</f>
+        <v>1.8224999999999847</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.8224999999999847</v>
-      </c>
-      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>90</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="11"/>
         <v>1.3499999999999943</v>
       </c>
-      <c r="H15" s="9">
+      <c r="P15" s="2">
         <f t="shared" si="2"/>
-        <v>1.8224999999999847</v>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="4"/>
+        <v>91.35</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="5"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="T15" s="2">
+        <v>90</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27">
+    <row r="16" spans="1:27" ht="20">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -925,23 +2024,92 @@
         <v>5</v>
       </c>
       <c r="F16" s="3">
+        <f>(C16-B16)^2</f>
+        <v>0.18490000000000587</v>
+      </c>
+      <c r="G16" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="H16" s="2">
+        <f>ABS(C16-B16)</f>
+        <v>0.43000000000000682</v>
+      </c>
+      <c r="I16" s="9">
+        <f>(C16-B16)^2</f>
+        <v>0.18490000000000587</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>0.18490000000000587</v>
-      </c>
-      <c r="G16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="2">
+        <v>94</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="11"/>
         <v>0.43000000000000682</v>
       </c>
-      <c r="H16" s="9">
+      <c r="P16" s="2">
         <f t="shared" si="2"/>
-        <v>0.18490000000000587</v>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4300000000000068</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="4"/>
+        <v>94.43</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="5"/>
+        <v>5.7200000000000273</v>
+      </c>
+      <c r="T16" s="2">
+        <v>94</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="9"/>
+        <v>94.5</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27">
+    <row r="17" spans="1:10" ht="20">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -949,31 +2117,53 @@
         <f>SQRT(AVERAGE(F2:F16))</f>
         <v>5.6812011640731983</v>
       </c>
-      <c r="G17" s="10">
-        <f>AVERAGE(G2:G16)</f>
+      <c r="G17" s="3"/>
+      <c r="H17" s="10">
+        <f>AVERAGE(H2:H16)</f>
         <v>4.6539999999999999</v>
       </c>
+      <c r="I17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="11">
+        <f>AVERAGE(J2:J16)</f>
+        <v>2.3666666666666667</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:10">
       <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="9">
+        <f>AVERAGE(I2:I16)</f>
+        <v>32.276046666666666</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <f>AVERAGE(K2:K16)</f>
+        <v>8.2166666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="9">
-        <f>AVERAGE(H2:H16)</f>
-        <v>32.276046666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="10">
-        <f>SQRT(G18)</f>
+      <c r="H19" s="10">
+        <f>SQRT(H18)</f>
         <v>5.6812011640731983</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SQRT(J18)</f>
+        <v>2.8664728616658257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>